--- a/data/CS4/Market Data/CS4_market_data_2030.xlsx
+++ b/data/CS4/Market Data/CS4_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D90DB-2F43-4DB4-892B-2DB40B91AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD36C5-1170-41BA-9905-2AA73DF39779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45135" yWindow="-6930" windowWidth="17310" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48435" yWindow="-11160" windowWidth="17310" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
       <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS4/Market Data/CS4_market_data_2030.xlsx
+++ b/data/CS4/Market Data/CS4_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD36C5-1170-41BA-9905-2AA73DF39779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5E4BD-FCC5-4F31-BC78-E5663887AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48435" yWindow="-11160" windowWidth="17310" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41385" yWindow="-7305" windowWidth="17310" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
       <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,11 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
